--- a/assets/tests/testsVersions.xlsx
+++ b/assets/tests/testsVersions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockExchange\binance\assets\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stockExchange\binancePlus\assets\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7831BF7F-9747-48CF-8976-E65D7CFF4276}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>    touchOpenerActivationWaitMode</t>
   </si>
@@ -66,12 +67,15 @@
   </si>
   <si>
     <t>alwaysUseNewTrend</t>
+  </si>
+  <si>
+    <t>fullCheck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,33 +446,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -478,39 +479,45 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -520,19 +527,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
@@ -542,56 +541,50 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -601,27 +594,55 @@
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
